--- a/output/dani.xlsx
+++ b/output/dani.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\לימודים\Shibutzi\Automated-shifts-assignment\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="84">
   <si>
     <t>NOA KERMAN</t>
   </si>
@@ -73,7 +78,7 @@
     <t>DANIAL</t>
   </si>
   <si>
-    <t>YARDEN GABAY</t>
+    <t>YARDIT</t>
   </si>
   <si>
     <t>NETA NOVO</t>
@@ -142,135 +147,141 @@
     <t>YANIV</t>
   </si>
   <si>
-    <t>2021-03-01</t>
-  </si>
-  <si>
-    <t>2021-03-02</t>
-  </si>
-  <si>
-    <t>2021-03-03</t>
-  </si>
-  <si>
-    <t>2021-03-04</t>
-  </si>
-  <si>
-    <t>2021-03-05</t>
-  </si>
-  <si>
-    <t>2021-03-06</t>
-  </si>
-  <si>
-    <t>2021-03-07</t>
-  </si>
-  <si>
-    <t>2021-03-08</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>2021-03-11</t>
-  </si>
-  <si>
-    <t>2021-03-12</t>
-  </si>
-  <si>
-    <t>2021-03-13</t>
-  </si>
-  <si>
-    <t>2021-03-14</t>
-  </si>
-  <si>
-    <t>2021-03-15</t>
-  </si>
-  <si>
-    <t>2021-03-16</t>
-  </si>
-  <si>
-    <t>2021-03-17</t>
-  </si>
-  <si>
-    <t>2021-03-18</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>2021-03-20</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>2021-03-23</t>
-  </si>
-  <si>
-    <t>2021-03-24</t>
-  </si>
-  <si>
-    <t>2021-03-25</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>2021-03-27</t>
-  </si>
-  <si>
-    <t>2021-03-28</t>
-  </si>
-  <si>
-    <t>2021-03-29</t>
-  </si>
-  <si>
-    <t>2021-03-30</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-24</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-03</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-17</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>bakut day 1</t>
+  </si>
+  <si>
+    <t>bakut night 1</t>
+  </si>
+  <si>
+    <t>bakut night 2</t>
+  </si>
+  <si>
+    <t>equipment day</t>
+  </si>
+  <si>
+    <t>equipment night</t>
+  </si>
+  <si>
+    <t>bakut day 2</t>
+  </si>
+  <si>
+    <t>sar poduction</t>
+  </si>
+  <si>
+    <t>eo production</t>
   </si>
   <si>
     <t xml:space="preserve">CLANING THE TAHAK </t>
   </si>
   <si>
-    <t>equipment night</t>
+    <t xml:space="preserve">ftt </t>
   </si>
   <si>
     <t>marzuk</t>
   </si>
   <si>
-    <t>eo production</t>
-  </si>
-  <si>
-    <t>equipment day</t>
-  </si>
-  <si>
-    <t>sar poduction</t>
-  </si>
-  <si>
     <t>wv equipment</t>
-  </si>
-  <si>
-    <t>bakut day 2</t>
-  </si>
-  <si>
-    <t>bakut day 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -278,7 +289,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -329,11 +340,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -375,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +426,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,6 +461,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,14 +637,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,288 +809,1018 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:43">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
-      <c r="A4" s="1" t="s">
+      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="V16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" t="s">
+        <v>72</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" t="s">
+        <v>76</v>
+      </c>
+      <c r="V22" t="s">
+        <v>83</v>
+      </c>
+      <c r="X22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:43">
-      <c r="A5" s="1" t="s">
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" t="s">
+        <v>74</v>
+      </c>
+      <c r="V24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="V27" t="s">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>75</v>
+      </c>
+      <c r="V28" t="s">
+        <v>83</v>
+      </c>
+      <c r="X28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
-      <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
-      <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32">
-      <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32">
-      <c r="A23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32">
-      <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32">
-      <c r="A26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32">
-      <c r="A27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32">
-      <c r="A28" s="1" t="s">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="R30" t="s">
+        <v>75</v>
+      </c>
+      <c r="W30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32">
-      <c r="A30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32">
-      <c r="A31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF32" t="s">
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="s">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:AQ31">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>